--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Cxcl13-Ackr4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Cxcl13-Ackr4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,40 +543,40 @@
         <v>12.139396</v>
       </c>
       <c r="I2">
-        <v>0.8279246837497715</v>
+        <v>0.5162107379131895</v>
       </c>
       <c r="J2">
-        <v>0.8279246837497715</v>
+        <v>0.5162107379131895</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.2315733333333333</v>
+        <v>0.1143813333333333</v>
       </c>
       <c r="N2">
-        <v>0.69472</v>
+        <v>0.343144</v>
       </c>
       <c r="O2">
-        <v>0.2371078251520917</v>
+        <v>0.128300337591142</v>
       </c>
       <c r="P2">
-        <v>0.2371078251520917</v>
+        <v>0.1283003375911419</v>
       </c>
       <c r="Q2">
-        <v>0.9370534654577777</v>
+        <v>0.4628401001137777</v>
       </c>
       <c r="R2">
-        <v>8.43348118912</v>
+        <v>4.165560901024</v>
       </c>
       <c r="S2">
-        <v>0.1963074211536416</v>
+        <v>0.06623001194243472</v>
       </c>
       <c r="T2">
-        <v>0.1963074211536416</v>
+        <v>0.06623001194243471</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,10 +605,10 @@
         <v>12.139396</v>
       </c>
       <c r="I3">
-        <v>0.8279246837497715</v>
+        <v>0.5162107379131895</v>
       </c>
       <c r="J3">
-        <v>0.8279246837497715</v>
+        <v>0.5162107379131895</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,10 +623,10 @@
         <v>2.160286</v>
       </c>
       <c r="O3">
-        <v>0.7373052671097876</v>
+        <v>0.8077233554817153</v>
       </c>
       <c r="P3">
-        <v>0.7373052671097876</v>
+        <v>0.8077233554817151</v>
       </c>
       <c r="Q3">
         <v>2.913840803028445</v>
@@ -635,10 +635,10 @@
         <v>26.224567227256</v>
       </c>
       <c r="S3">
-        <v>0.6104332300989117</v>
+        <v>0.4169554693629337</v>
       </c>
       <c r="T3">
-        <v>0.6104332300989117</v>
+        <v>0.4169554693629337</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,10 +667,10 @@
         <v>12.139396</v>
       </c>
       <c r="I4">
-        <v>0.8279246837497715</v>
+        <v>0.5162107379131895</v>
       </c>
       <c r="J4">
-        <v>0.8279246837497715</v>
+        <v>0.5162107379131895</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -679,33 +679,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.02498966666666667</v>
+        <v>0.03357866666666667</v>
       </c>
       <c r="N4">
-        <v>0.07496900000000001</v>
+        <v>0.100736</v>
       </c>
       <c r="O4">
-        <v>0.02558690773812063</v>
+        <v>0.03766483694187069</v>
       </c>
       <c r="P4">
-        <v>0.02558690773812063</v>
+        <v>0.03766483694187069</v>
       </c>
       <c r="Q4">
-        <v>0.1011198198582222</v>
+        <v>0.1358749106062222</v>
       </c>
       <c r="R4">
-        <v>0.9100783787240001</v>
+        <v>1.222874195456</v>
       </c>
       <c r="S4">
-        <v>0.02118403249721811</v>
+        <v>0.01944299327114303</v>
       </c>
       <c r="T4">
-        <v>0.02118403249721811</v>
+        <v>0.01944299327114303</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>23</v>
@@ -714,55 +714,55 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.5656100000000001</v>
+        <v>4.046465333333333</v>
       </c>
       <c r="H5">
-        <v>1.69683</v>
+        <v>12.139396</v>
       </c>
       <c r="I5">
-        <v>0.1157263047623724</v>
+        <v>0.5162107379131895</v>
       </c>
       <c r="J5">
-        <v>0.1157263047623724</v>
+        <v>0.5162107379131895</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.2315733333333333</v>
+        <v>0.023457</v>
       </c>
       <c r="N5">
-        <v>0.69472</v>
+        <v>0.070371</v>
       </c>
       <c r="O5">
-        <v>0.2371078251520917</v>
+        <v>0.02631146998527222</v>
       </c>
       <c r="P5">
-        <v>0.2371078251520917</v>
+        <v>0.02631146998527222</v>
       </c>
       <c r="Q5">
-        <v>0.1309801930666667</v>
+        <v>0.094917937324</v>
       </c>
       <c r="R5">
-        <v>1.1788217376</v>
+        <v>0.854261435916</v>
       </c>
       <c r="S5">
-        <v>0.02743961243509429</v>
+        <v>0.01358226333667811</v>
       </c>
       <c r="T5">
-        <v>0.02743961243509428</v>
+        <v>0.01358226333667811</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,7 +776,7 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -785,46 +785,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.5656100000000001</v>
+        <v>0.155986</v>
       </c>
       <c r="H6">
-        <v>1.69683</v>
+        <v>0.467958</v>
       </c>
       <c r="I6">
-        <v>0.1157263047623724</v>
+        <v>0.01989925565426652</v>
       </c>
       <c r="J6">
-        <v>0.1157263047623724</v>
+        <v>0.01989925565426652</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.7200953333333334</v>
+        <v>0.1143813333333333</v>
       </c>
       <c r="N6">
-        <v>2.160286</v>
+        <v>0.343144</v>
       </c>
       <c r="O6">
-        <v>0.7373052671097876</v>
+        <v>0.128300337591142</v>
       </c>
       <c r="P6">
-        <v>0.7373052671097876</v>
+        <v>0.1283003375911419</v>
       </c>
       <c r="Q6">
-        <v>0.4072931214866667</v>
+        <v>0.01784188666133333</v>
       </c>
       <c r="R6">
-        <v>3.665638093380001</v>
+        <v>0.160576979952</v>
       </c>
       <c r="S6">
-        <v>0.0853256140444497</v>
+        <v>0.002553081218254834</v>
       </c>
       <c r="T6">
-        <v>0.08532561404444969</v>
+        <v>0.002553081218254834</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,7 +838,7 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -847,51 +847,51 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.5656100000000001</v>
+        <v>0.155986</v>
       </c>
       <c r="H7">
-        <v>1.69683</v>
+        <v>0.467958</v>
       </c>
       <c r="I7">
-        <v>0.1157263047623724</v>
+        <v>0.01989925565426652</v>
       </c>
       <c r="J7">
-        <v>0.1157263047623724</v>
+        <v>0.01989925565426652</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.02498966666666667</v>
+        <v>0.7200953333333334</v>
       </c>
       <c r="N7">
-        <v>0.07496900000000001</v>
+        <v>2.160286</v>
       </c>
       <c r="O7">
-        <v>0.02558690773812063</v>
+        <v>0.8077233554817153</v>
       </c>
       <c r="P7">
-        <v>0.02558690773812063</v>
+        <v>0.8077233554817151</v>
       </c>
       <c r="Q7">
-        <v>0.01413440536333334</v>
+        <v>0.1123247906653333</v>
       </c>
       <c r="R7">
-        <v>0.12720964827</v>
+        <v>1.010923115988</v>
       </c>
       <c r="S7">
-        <v>0.002961078282828454</v>
+        <v>0.01607309354865265</v>
       </c>
       <c r="T7">
-        <v>0.002961078282828454</v>
+        <v>0.01607309354865264</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>23</v>
@@ -900,7 +900,7 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -909,51 +909,51 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.2754046666666667</v>
+        <v>0.155986</v>
       </c>
       <c r="H8">
-        <v>0.826214</v>
+        <v>0.467958</v>
       </c>
       <c r="I8">
-        <v>0.05634901148785605</v>
+        <v>0.01989925565426652</v>
       </c>
       <c r="J8">
-        <v>0.05634901148785604</v>
+        <v>0.01989925565426652</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.2315733333333333</v>
+        <v>0.03357866666666667</v>
       </c>
       <c r="N8">
-        <v>0.69472</v>
+        <v>0.100736</v>
       </c>
       <c r="O8">
-        <v>0.2371078251520917</v>
+        <v>0.03766483694187069</v>
       </c>
       <c r="P8">
-        <v>0.2371078251520917</v>
+        <v>0.03766483694187069</v>
       </c>
       <c r="Q8">
-        <v>0.06377637667555555</v>
+        <v>0.005237801898666667</v>
       </c>
       <c r="R8">
-        <v>0.57398739008</v>
+        <v>0.047140217088</v>
       </c>
       <c r="S8">
-        <v>0.01336079156335578</v>
+        <v>0.0007495022194825466</v>
       </c>
       <c r="T8">
-        <v>0.01336079156335578</v>
+        <v>0.0007495022194825466</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>23</v>
@@ -962,7 +962,7 @@
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -971,46 +971,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.2754046666666667</v>
+        <v>0.155986</v>
       </c>
       <c r="H9">
-        <v>0.826214</v>
+        <v>0.467958</v>
       </c>
       <c r="I9">
-        <v>0.05634901148785605</v>
+        <v>0.01989925565426652</v>
       </c>
       <c r="J9">
-        <v>0.05634901148785604</v>
+        <v>0.01989925565426652</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.7200953333333334</v>
+        <v>0.023457</v>
       </c>
       <c r="N9">
-        <v>2.160286</v>
+        <v>0.070371</v>
       </c>
       <c r="O9">
-        <v>0.7373052671097876</v>
+        <v>0.02631146998527222</v>
       </c>
       <c r="P9">
-        <v>0.7373052671097876</v>
+        <v>0.02631146998527222</v>
       </c>
       <c r="Q9">
-        <v>0.1983176152448889</v>
+        <v>0.003658963602</v>
       </c>
       <c r="R9">
-        <v>1.784858537204</v>
+        <v>0.032930672418</v>
       </c>
       <c r="S9">
-        <v>0.0415464229664262</v>
+        <v>0.000523578667876492</v>
       </c>
       <c r="T9">
-        <v>0.04154642296642619</v>
+        <v>0.0005235786678764919</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,25 +1024,25 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.2754046666666667</v>
+        <v>3.636334333333334</v>
       </c>
       <c r="H10">
-        <v>0.826214</v>
+        <v>10.909003</v>
       </c>
       <c r="I10">
-        <v>0.05634901148785605</v>
+        <v>0.463890006432544</v>
       </c>
       <c r="J10">
-        <v>0.05634901148785604</v>
+        <v>0.463890006432544</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1051,28 +1051,214 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.02498966666666667</v>
+        <v>0.1143813333333333</v>
       </c>
       <c r="N10">
-        <v>0.07496900000000001</v>
+        <v>0.343144</v>
       </c>
       <c r="O10">
-        <v>0.02558690773812063</v>
+        <v>0.128300337591142</v>
       </c>
       <c r="P10">
-        <v>0.02558690773812063</v>
+        <v>0.1283003375911419</v>
       </c>
       <c r="Q10">
-        <v>0.006882270818444446</v>
+        <v>0.4159287694924445</v>
       </c>
       <c r="R10">
-        <v>0.06194043736600001</v>
+        <v>3.743358925432</v>
       </c>
       <c r="S10">
-        <v>0.001441796958074073</v>
+        <v>0.05951724443045241</v>
       </c>
       <c r="T10">
-        <v>0.001441796958074072</v>
+        <v>0.05951724443045239</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>3.636334333333334</v>
+      </c>
+      <c r="H11">
+        <v>10.909003</v>
+      </c>
+      <c r="I11">
+        <v>0.463890006432544</v>
+      </c>
+      <c r="J11">
+        <v>0.463890006432544</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.7200953333333334</v>
+      </c>
+      <c r="N11">
+        <v>2.160286</v>
+      </c>
+      <c r="O11">
+        <v>0.8077233554817153</v>
+      </c>
+      <c r="P11">
+        <v>0.8077233554817151</v>
+      </c>
+      <c r="Q11">
+        <v>2.618507383873112</v>
+      </c>
+      <c r="R11">
+        <v>23.566566454858</v>
+      </c>
+      <c r="S11">
+        <v>0.3746947925701289</v>
+      </c>
+      <c r="T11">
+        <v>0.3746947925701288</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>3.636334333333334</v>
+      </c>
+      <c r="H12">
+        <v>10.909003</v>
+      </c>
+      <c r="I12">
+        <v>0.463890006432544</v>
+      </c>
+      <c r="J12">
+        <v>0.463890006432544</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.03357866666666667</v>
+      </c>
+      <c r="N12">
+        <v>0.100736</v>
+      </c>
+      <c r="O12">
+        <v>0.03766483694187069</v>
+      </c>
+      <c r="P12">
+        <v>0.03766483694187069</v>
+      </c>
+      <c r="Q12">
+        <v>0.1221032584675556</v>
+      </c>
+      <c r="R12">
+        <v>1.098929326208</v>
+      </c>
+      <c r="S12">
+        <v>0.01747234145124511</v>
+      </c>
+      <c r="T12">
+        <v>0.01747234145124511</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>3.636334333333334</v>
+      </c>
+      <c r="H13">
+        <v>10.909003</v>
+      </c>
+      <c r="I13">
+        <v>0.463890006432544</v>
+      </c>
+      <c r="J13">
+        <v>0.463890006432544</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.023457</v>
+      </c>
+      <c r="N13">
+        <v>0.070371</v>
+      </c>
+      <c r="O13">
+        <v>0.02631146998527222</v>
+      </c>
+      <c r="P13">
+        <v>0.02631146998527222</v>
+      </c>
+      <c r="Q13">
+        <v>0.08529749445700001</v>
+      </c>
+      <c r="R13">
+        <v>0.767677450113</v>
+      </c>
+      <c r="S13">
+        <v>0.01220562798071762</v>
+      </c>
+      <c r="T13">
+        <v>0.01220562798071761</v>
       </c>
     </row>
   </sheetData>
